--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>423027.4305991505</v>
+        <v>420326.213947694</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673423</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>225.4031397636151</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015062</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>263.7138800015062</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>88.15492745997847</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>77.79707057279553</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>124.7650187107627</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>246.9027496414556</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>102.075709695719</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>12.41899097776993</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863685</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660375</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>173.8288514668692</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>97.84123035967367</v>
       </c>
       <c r="G6" t="n">
-        <v>122.487404508472</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333227</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951728</v>
+        <v>36.2734647695173</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713806</v>
       </c>
       <c r="S6" t="n">
         <v>143.0237294698458</v>
@@ -1029,16 +1029,16 @@
         <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>129.1426990998</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015377</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643507</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>106.7704271215201</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.96056315807662</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>159.2508239713369</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>58.14757459799851</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>47.82814756577479</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184546</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
-        <v>165.6115586515488</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>76.6627675210925</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530785</v>
+        <v>10.48847705530784</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>136.7254352278194</v>
       </c>
       <c r="C13" t="n">
-        <v>39.16692880091485</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905233</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="15">
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>219.0380704109147</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>120.7871326503965</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428088</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833897</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>75.12653431054432</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444134</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>118.1266457994461</v>
+        <v>83.06560892428142</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="27">
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>99.97427419833835</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>270.2098431360454</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>60.64713141730867</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>99.65140663107526</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699809</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673014</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673015</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>99.97427419833791</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.4778634388467</v>
+        <v>573.7617370571244</v>
       </c>
       <c r="C2" t="n">
-        <v>788.4778634388467</v>
+        <v>573.7617370571244</v>
       </c>
       <c r="D2" t="n">
-        <v>788.4778634388467</v>
+        <v>573.7617370571244</v>
       </c>
       <c r="E2" t="n">
-        <v>560.7979242836799</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="F2" t="n">
-        <v>553.8524235344764</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G2" t="n">
         <v>287.4747669672985</v>
@@ -4364,16 +4364,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571244</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388467</v>
+        <v>573.7617370571244</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>758.0498399683654</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="C3" t="n">
-        <v>758.0498399683654</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D3" t="n">
-        <v>609.1154303071141</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>449.8779753016586</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4410,22 +4410,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>965.8101387333193</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="U3" t="n">
-        <v>965.8101387333193</v>
+        <v>827.6363220413841</v>
       </c>
       <c r="V3" t="n">
-        <v>965.8101387333193</v>
+        <v>592.4842138096415</v>
       </c>
       <c r="W3" t="n">
-        <v>965.8101387333193</v>
+        <v>338.2468570814398</v>
       </c>
       <c r="X3" t="n">
-        <v>965.8101387333193</v>
+        <v>338.2468570814398</v>
       </c>
       <c r="Y3" t="n">
-        <v>758.0498399683654</v>
+        <v>338.2468570814398</v>
       </c>
     </row>
     <row r="4">
@@ -4498,10 +4498,10 @@
         <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,22 +4510,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512191</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2759572512191</v>
+        <v>622.5994491745504</v>
       </c>
       <c r="U4" t="n">
-        <v>719.2759572512191</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V4" t="n">
-        <v>719.2759572512191</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W4" t="n">
-        <v>469.8792404416679</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X4" t="n">
         <v>241.8896895436506</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>519.4507552748565</v>
+        <v>824.6297868372142</v>
       </c>
       <c r="C5" t="n">
-        <v>150.4882383344448</v>
+        <v>824.6297868372142</v>
       </c>
       <c r="D5" t="n">
-        <v>150.4882383344448</v>
+        <v>466.3640882304637</v>
       </c>
       <c r="E5" t="n">
-        <v>150.4882383344448</v>
+        <v>363.2573107600405</v>
       </c>
       <c r="F5" t="n">
-        <v>143.5427375852414</v>
+        <v>356.311810010837</v>
       </c>
       <c r="G5" t="n">
-        <v>130.9983022541606</v>
+        <v>343.7673746797563</v>
       </c>
       <c r="H5" t="n">
-        <v>130.9983022541606</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523453</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275164</v>
+        <v>93.76641159275152</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245565</v>
+        <v>239.0325989245563</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825642</v>
+        <v>456.1499114825632</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748868</v>
+        <v>729.4041931748862</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202381</v>
+        <v>1011.69382320238</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798415</v>
+        <v>1264.916654798414</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189412</v>
+        <v>1446.535482189411</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261726</v>
+        <v>1534.750911261725</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261726</v>
+        <v>1534.750911261725</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261726</v>
+        <v>1389.996673518253</v>
       </c>
       <c r="T5" t="n">
-        <v>1322.152679850802</v>
+        <v>1177.398442107328</v>
       </c>
       <c r="U5" t="n">
-        <v>1068.501211987319</v>
+        <v>1177.398442107328</v>
       </c>
       <c r="V5" t="n">
-        <v>1068.501211987319</v>
+        <v>1177.398442107328</v>
       </c>
       <c r="W5" t="n">
-        <v>892.9165135359365</v>
+        <v>824.6297868372142</v>
       </c>
       <c r="X5" t="n">
-        <v>519.4507552748565</v>
+        <v>824.6297868372142</v>
       </c>
       <c r="Y5" t="n">
-        <v>519.4507552748565</v>
+        <v>824.6297868372142</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>289.3765912770745</v>
+        <v>499.8548915312019</v>
       </c>
       <c r="C6" t="n">
-        <v>289.3765912770745</v>
+        <v>325.4018622500748</v>
       </c>
       <c r="D6" t="n">
-        <v>289.3765912770745</v>
+        <v>325.4018622500748</v>
       </c>
       <c r="E6" t="n">
-        <v>289.3765912770745</v>
+        <v>166.1644072446193</v>
       </c>
       <c r="F6" t="n">
-        <v>289.3765912770745</v>
+        <v>67.33488162878733</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6519402584159</v>
+        <v>67.33488162878733</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878734</v>
+        <v>67.33488162878733</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523453</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563436</v>
+        <v>49.4420610756343</v>
       </c>
       <c r="K6" t="n">
-        <v>159.6385680169449</v>
+        <v>159.6385680169448</v>
       </c>
       <c r="L6" t="n">
-        <v>354.1339118482971</v>
+        <v>354.1339118482969</v>
       </c>
       <c r="M6" t="n">
-        <v>600.4576725190432</v>
+        <v>600.4576725190429</v>
       </c>
       <c r="N6" t="n">
-        <v>867.7095350912657</v>
+        <v>980.3085230563199</v>
       </c>
       <c r="O6" t="n">
-        <v>1089.972982256784</v>
+        <v>1202.571970221839</v>
       </c>
       <c r="P6" t="n">
-        <v>1270.370911090181</v>
+        <v>1478.34742594867</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261726</v>
+        <v>1534.750911261725</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261726</v>
+        <v>1530.346686757974</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.282497655821</v>
+        <v>1385.878273152069</v>
       </c>
       <c r="T6" t="n">
-        <v>1194.377855207505</v>
+        <v>1189.973630703753</v>
       </c>
       <c r="U6" t="n">
-        <v>1194.377855207505</v>
+        <v>961.8525470243574</v>
       </c>
       <c r="V6" t="n">
-        <v>959.2257469757628</v>
+        <v>961.8525470243574</v>
       </c>
       <c r="W6" t="n">
-        <v>704.9883902475613</v>
+        <v>707.6151902961558</v>
       </c>
       <c r="X6" t="n">
-        <v>497.1368900420284</v>
+        <v>707.6151902961558</v>
       </c>
       <c r="Y6" t="n">
-        <v>289.3765912770745</v>
+        <v>499.8548915312019</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>427.6838053332269</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="C7" t="n">
-        <v>427.6838053332269</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="D7" t="n">
-        <v>427.6838053332269</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="E7" t="n">
-        <v>297.2366345253481</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="F7" t="n">
-        <v>150.3466870274378</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="G7" t="n">
-        <v>150.3466870274378</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3466870274378</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709665</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523453</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="K7" t="n">
         <v>157.4322756223268</v>
@@ -4732,43 +4732,43 @@
         <v>375.1387655830391</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388156</v>
+        <v>615.0688576388155</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974829</v>
+        <v>854.7285647974828</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891673</v>
+        <v>1060.076798891672</v>
       </c>
       <c r="P7" t="n">
         <v>1212.267005934022</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495185</v>
+        <v>1234.200536495184</v>
       </c>
       <c r="R7" t="n">
         <v>1113.866490402742</v>
       </c>
       <c r="S7" t="n">
-        <v>910.3578444371311</v>
+        <v>910.3578444371309</v>
       </c>
       <c r="T7" t="n">
-        <v>910.3578444371311</v>
+        <v>910.3578444371309</v>
       </c>
       <c r="U7" t="n">
-        <v>910.3578444371311</v>
+        <v>621.2179736135024</v>
       </c>
       <c r="V7" t="n">
-        <v>655.6733562312443</v>
+        <v>366.5334854076156</v>
       </c>
       <c r="W7" t="n">
-        <v>655.6733562312443</v>
+        <v>258.6845691232518</v>
       </c>
       <c r="X7" t="n">
-        <v>427.6838053332269</v>
+        <v>30.6950182252345</v>
       </c>
       <c r="Y7" t="n">
-        <v>427.6838053332269</v>
+        <v>30.6950182252345</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1567.784838233996</v>
+        <v>1378.810406950778</v>
       </c>
       <c r="C8" t="n">
-        <v>1567.784838233996</v>
+        <v>1378.810406950778</v>
       </c>
       <c r="D8" t="n">
-        <v>1567.784838233996</v>
+        <v>1020.544708344028</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>634.7564557457833</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>223.7705509561758</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>212.1062047208687</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800313</v>
@@ -4835,19 +4835,19 @@
         <v>2353.593687005981</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.593687005981</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.53079966241</v>
+        <v>1768.94973892659</v>
       </c>
       <c r="W8" t="n">
-        <v>2022.53079966241</v>
+        <v>1768.94973892659</v>
       </c>
       <c r="X8" t="n">
-        <v>2022.53079966241</v>
+        <v>1768.94973892659</v>
       </c>
       <c r="Y8" t="n">
-        <v>1632.391467686598</v>
+        <v>1378.810406950778</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310615</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625333</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217535</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681275</v>
+        <v>1552.492103330614</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460313</v>
+        <v>1884.562538506776</v>
       </c>
       <c r="P9" t="n">
         <v>2447.02341329261</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>256.8716579022756</v>
+        <v>201.3634259803389</v>
       </c>
       <c r="C10" t="n">
-        <v>198.1367340659135</v>
+        <v>201.3634259803389</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F10" t="n">
         <v>51.24678656800313</v>
@@ -4987,25 +4987,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1485.551453422631</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1262.572972617366</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288653</v>
+        <v>973.4546351212038</v>
       </c>
       <c r="V10" t="n">
-        <v>767.0814070827663</v>
+        <v>718.7701469153169</v>
       </c>
       <c r="W10" t="n">
-        <v>477.6642370458057</v>
+        <v>429.3529768783562</v>
       </c>
       <c r="X10" t="n">
-        <v>477.6642370458057</v>
+        <v>201.3634259803389</v>
       </c>
       <c r="Y10" t="n">
-        <v>256.8716579022756</v>
+        <v>201.3634259803389</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1671.583813784372</v>
+        <v>1898.076467649853</v>
       </c>
       <c r="C11" t="n">
-        <v>1671.583813784372</v>
+        <v>1529.113950709441</v>
       </c>
       <c r="D11" t="n">
-        <v>1313.318115177622</v>
+        <v>1170.848252102691</v>
       </c>
       <c r="E11" t="n">
-        <v>927.529862579378</v>
+        <v>785.0599995044466</v>
       </c>
       <c r="F11" t="n">
-        <v>516.5439577897707</v>
+        <v>785.0599995044466</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309162</v>
+        <v>370.4442349455923</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>77.53766591592083</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592083</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.4060796706895</v>
       </c>
       <c r="K11" t="n">
         <v>695.1615405656967</v>
@@ -5054,37 +5054,37 @@
         <v>2455.600890484045</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535299</v>
+        <v>3033.988513535301</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479998</v>
+        <v>3493.127967479999</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464063</v>
+        <v>3789.749829464065</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796039</v>
+        <v>3876.883295796041</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796039</v>
+        <v>3876.883295796041</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.904689377403</v>
+        <v>3672.904689377406</v>
       </c>
       <c r="U11" t="n">
-        <v>3505.620286699071</v>
+        <v>3419.410747498934</v>
       </c>
       <c r="V11" t="n">
-        <v>3174.5573993555</v>
+        <v>3088.347860155363</v>
       </c>
       <c r="W11" t="n">
-        <v>2821.788744085386</v>
+        <v>2735.579204885249</v>
       </c>
       <c r="X11" t="n">
-        <v>2448.322985824306</v>
+        <v>2362.113446624169</v>
       </c>
       <c r="Y11" t="n">
-        <v>2058.183653848494</v>
+        <v>2284.676307713975</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.9274008453848</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390854</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592083</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592078</v>
+        <v>193.8410919870415</v>
       </c>
       <c r="K12" t="n">
-        <v>84.53144813504093</v>
+        <v>470.7769964046661</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929928</v>
+        <v>676.7125526339495</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749521</v>
+        <v>1184.669118590478</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450732</v>
+        <v>1720.478428291689</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2188.419472624212</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>706.4157542544514</v>
+        <v>227.6543053282566</v>
       </c>
       <c r="C13" t="n">
-        <v>666.8531999100933</v>
+        <v>227.6543053282566</v>
       </c>
       <c r="D13" t="n">
-        <v>516.7365604977575</v>
+        <v>77.53766591592083</v>
       </c>
       <c r="E13" t="n">
-        <v>368.8234669153644</v>
+        <v>77.53766591592083</v>
       </c>
       <c r="F13" t="n">
-        <v>221.9335194174541</v>
+        <v>77.53766591592083</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174541</v>
+        <v>77.53766591592083</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592083</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592083</v>
       </c>
       <c r="J13" t="n">
-        <v>136.855221875865</v>
+        <v>136.8552218758651</v>
       </c>
       <c r="K13" t="n">
         <v>364.1690246648147</v>
@@ -5215,34 +5215,34 @@
         <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010723</v>
+        <v>2042.940349010724</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742809</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276105</v>
+        <v>1868.627619458881</v>
       </c>
       <c r="T13" t="n">
-        <v>1949.247121276105</v>
+        <v>1647.736286893321</v>
       </c>
       <c r="U13" t="n">
-        <v>1660.155428225556</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1405.470940019669</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>1116.053769982708</v>
+        <v>814.5429355999245</v>
       </c>
       <c r="X13" t="n">
-        <v>888.0642190846911</v>
+        <v>586.5533847019071</v>
       </c>
       <c r="Y13" t="n">
-        <v>888.0642190846911</v>
+        <v>365.7608055583772</v>
       </c>
     </row>
     <row r="14">
@@ -5282,13 +5282,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,7 +5312,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290472</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C16" t="n">
-        <v>699.7311804011404</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888046</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888046</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908942</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,16 +5434,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1271.108407302817</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="17">
@@ -5519,13 +5519,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5607,13 +5607,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400709</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138407</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703106</v>
+        <v>695.5020655703102</v>
       </c>
     </row>
     <row r="20">
@@ -5753,25 +5753,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5835,22 +5835,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851665</v>
+        <v>513.853600740072</v>
       </c>
       <c r="C22" t="n">
-        <v>696.7084350851666</v>
+        <v>344.9174178121651</v>
       </c>
       <c r="D22" t="n">
-        <v>546.5917956728308</v>
+        <v>194.8007783998294</v>
       </c>
       <c r="E22" t="n">
-        <v>398.6787020904377</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>251.7887545925273</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>251.7887545925273</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478296</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797747</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058936</v>
+        <v>916.2946447138419</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154062</v>
+        <v>695.5020655703117</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111725</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>985.783661740969</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C25" t="n">
-        <v>816.847478813062</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,7 +6145,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038341</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1616.214256612756</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,28 +6245,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>530.331535286077</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>530.331535286077</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>530.331535286077</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036839</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057735</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057735</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,7 +6406,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1160.762130157864</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>932.7725792598469</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>711.9800001163168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327618</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048549</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925191</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>296.788222910126</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>296.788222910126</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038321</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797722</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580258</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580258</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603199</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947397</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.60190374151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704549</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806532</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630015</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="32">
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1057.61331560176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>888.6771326738531</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>738.5604932615173</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>590.6473996791242</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>443.7574521812138</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>276.5613528960939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,7 +6880,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1688.043910473547</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1460.05435957553</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1239.261780432</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188011</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908942</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908942</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908942</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908942</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,7 +7117,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.101820392571</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490408</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
@@ -7178,7 +7178,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7199,22 +7199,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7336,7 +7336,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,19 +7348,19 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
         <v>1688.385853854706</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400708</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121639</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121639</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121639</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,7 +7822,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637</v>
+        <v>34.43939438637003</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>113.736351479853</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>21.5605895300082</v>
+        <v>117.9015257860034</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,16 +8538,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>84.94186588374765</v>
       </c>
       <c r="N9" t="n">
-        <v>224.3355197601776</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.160150103916</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184543</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615206</v>
+        <v>98.88510599615203</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>85.34744380813811</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>309.5751711349611</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>43.10654495411785</v>
       </c>
       <c r="C13" t="n">
-        <v>128.079892297713</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927372</v>
+        <v>90.2535238992737</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905234</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
     </row>
     <row r="15">
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.32043864788604</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>67.48492792567632</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>46.45968844823136</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393148</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.4596884482302</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>65.16817853567957</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>30.48882721876625</v>
+        <v>65.54986409393094</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>16.31315520054554</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>104.8770068749602</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823105</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>40.64330621514863</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194277</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,10 +26035,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194221</v>
+        <v>65.54986409393094</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>945640.2217850897</v>
+        <v>945640.2217850902</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855342</v>
@@ -26320,37 +26320,37 @@
         <v>389994.8406855348</v>
       </c>
       <c r="E2" t="n">
-        <v>347979.8910303381</v>
+        <v>347979.8910303383</v>
       </c>
       <c r="F2" t="n">
+        <v>383394.6348527528</v>
+      </c>
+      <c r="G2" t="n">
+        <v>383394.6348527531</v>
+      </c>
+      <c r="H2" t="n">
         <v>383394.634852753</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="J2" t="n">
         <v>383394.634852753</v>
       </c>
-      <c r="H2" t="n">
-        <v>383394.6348527529</v>
-      </c>
-      <c r="I2" t="n">
-        <v>383394.6348527527</v>
-      </c>
-      <c r="J2" t="n">
-        <v>383394.6348527529</v>
-      </c>
       <c r="K2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="L2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
       <c r="M2" t="n">
         <v>383394.6348527529</v>
       </c>
       <c r="N2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="O2" t="n">
         <v>383394.6348527528</v>
-      </c>
-      <c r="O2" t="n">
-        <v>383394.634852753</v>
       </c>
       <c r="P2" t="n">
         <v>383394.6348527528</v>
@@ -26366,16 +26366,16 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657074</v>
+        <v>132804.2190657072</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929375</v>
+        <v>265413.0723929377</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545778</v>
+        <v>313577.1573545781</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704282</v>
+        <v>189308.2687704279</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417428</v>
+        <v>30877.42926417433</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049566</v>
+        <v>65018.34502049568</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273083</v>
+        <v>81897.40371273103</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202352</v>
+        <v>49839.57413202327</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>253016.7649073352</v>
       </c>
       <c r="C4" t="n">
-        <v>217460.7998099262</v>
+        <v>217460.7998099263</v>
       </c>
       <c r="D4" t="n">
         <v>142746.9572676994</v>
@@ -26436,10 +26436,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181814</v>
@@ -26448,13 +26448,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
+        <v>12386.92018181817</v>
+      </c>
+      <c r="O4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12386.92018181819</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26470,13 +26470,13 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667497</v>
+        <v>72593.65038667496</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738573</v>
+        <v>85137.48506738577</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-606157.70801726</v>
       </c>
       <c r="C6" t="n">
-        <v>-32863.82857677445</v>
+        <v>-32863.82857677432</v>
       </c>
       <c r="D6" t="n">
-        <v>-111102.9614149469</v>
+        <v>-111102.961414947</v>
       </c>
       <c r="E6" t="n">
-        <v>-63016.25301379705</v>
+        <v>-63237.38432777192</v>
       </c>
       <c r="F6" t="n">
-        <v>80576.91607659958</v>
+        <v>80542.178151164</v>
       </c>
       <c r="G6" t="n">
-        <v>269885.1848470278</v>
+        <v>269850.4469215921</v>
       </c>
       <c r="H6" t="n">
-        <v>269885.1848470276</v>
+        <v>269850.446921592</v>
       </c>
       <c r="I6" t="n">
-        <v>269885.1848470275</v>
+        <v>269850.4469215919</v>
       </c>
       <c r="J6" t="n">
-        <v>200886.0304279135</v>
+        <v>200851.292502478</v>
       </c>
       <c r="K6" t="n">
-        <v>239007.7555828534</v>
+        <v>238973.0176574176</v>
       </c>
       <c r="L6" t="n">
-        <v>204866.8398265319</v>
+        <v>204832.1019010964</v>
       </c>
       <c r="M6" t="n">
-        <v>187987.7811342968</v>
+        <v>187953.0432088609</v>
       </c>
       <c r="N6" t="n">
-        <v>220045.610715004</v>
+        <v>220010.8727895687</v>
       </c>
       <c r="O6" t="n">
-        <v>269885.1848470276</v>
+        <v>269850.4469215918</v>
       </c>
       <c r="P6" t="n">
-        <v>269885.1848470275</v>
+        <v>269850.4469215919</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695752</v>
+        <v>717.3319511695751</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175394</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154316</v>
+        <v>383.6877278154313</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490097</v>
+        <v>969.2208239490103</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000968</v>
+        <v>103.2769374000967</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479643</v>
+        <v>216.7329409479644</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974116</v>
+        <v>268.1763450974119</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267227</v>
+        <v>165.7342631267225</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,40 +27012,40 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
+        <v>119.9738478139251</v>
+      </c>
+      <c r="D4" t="n">
+        <v>256.8971042846078</v>
+      </c>
+      <c r="E4" t="n">
+        <v>328.6359918489712</v>
+      </c>
+      <c r="F4" t="n">
+        <v>203.4874641506381</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>263.7138800015059</v>
+      </c>
+      <c r="K4" t="n">
         <v>119.9738478139253</v>
       </c>
-      <c r="D4" t="n">
-        <v>256.8971042846075</v>
-      </c>
-      <c r="E4" t="n">
-        <v>328.6359918489707</v>
-      </c>
-      <c r="F4" t="n">
-        <v>203.4874641506386</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>263.7138800015062</v>
-      </c>
-      <c r="K4" t="n">
-        <v>119.9738478139251</v>
-      </c>
       <c r="L4" t="n">
-        <v>256.8971042846077</v>
+        <v>256.8971042846078</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489704</v>
+        <v>328.6359918489712</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506378</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139253</v>
+        <v>119.9738478139251</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846075</v>
+        <v>256.8971042846078</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489707</v>
+        <v>328.6359918489712</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506386</v>
+        <v>203.4874641506381</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>156.5272303086466</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776178</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27436,16 +27436,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>157.1621355605639</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>106.6860601248983</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>148.0574169307591</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>161.4936117919148</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>39.62024869513539</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>279.8546603765428</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863688</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660375</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>175.4121172505438</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,22 +27695,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>47.22798203371021</v>
       </c>
       <c r="G6" t="n">
-        <v>13.3131722314682</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333227</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713792</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,16 +27749,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>17.29126354676916</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6974299383169</v>
@@ -27792,10 +27792,10 @@
         <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643522</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>179.7525712150709</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>318.7732785054039</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>141.7677285910684</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247044</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>109.0992465006293</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>146.8343127959627</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="27">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29694,7 +29694,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>-7.032208304403594e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31282,43 +31282,43 @@
         <v>29.53316922579058</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817691</v>
+        <v>111.175638381769</v>
       </c>
       <c r="J5" t="n">
         <v>244.7543826756934</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023592</v>
+        <v>366.8233736023591</v>
       </c>
       <c r="L5" t="n">
         <v>455.0768316952472</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791142</v>
+        <v>506.3606591791141</v>
       </c>
       <c r="N5" t="n">
         <v>514.5541040284029</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974785</v>
+        <v>485.8788493974783</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562769</v>
+        <v>414.6863567562768</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868883</v>
+        <v>311.4121838868882</v>
       </c>
       <c r="R5" t="n">
         <v>181.1461434277621</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020784</v>
+        <v>65.71337422020783</v>
       </c>
       <c r="T5" t="n">
         <v>12.62360046731584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892099</v>
+        <v>0.2306997229892098</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31358,28 +31358,28 @@
         <v>1.542940423270407</v>
       </c>
       <c r="H6" t="n">
-        <v>14.9015561931642</v>
+        <v>14.90155619316419</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189779</v>
+        <v>53.12316808189778</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862625</v>
+        <v>145.7740335862624</v>
       </c>
       <c r="K6" t="n">
         <v>249.1510419453797</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438663</v>
+        <v>335.0143230438662</v>
       </c>
       <c r="M6" t="n">
         <v>390.9459133874184</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189117</v>
+        <v>401.2930884189116</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348674</v>
+        <v>367.1047769348673</v>
       </c>
       <c r="P6" t="n">
         <v>294.6339480190657</v>
@@ -31388,13 +31388,13 @@
         <v>196.9549915739558</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392934</v>
+        <v>95.79765189392933</v>
       </c>
       <c r="S6" t="n">
         <v>28.65944163399197</v>
       </c>
       <c r="T6" t="n">
-        <v>6.21913267098905</v>
+        <v>6.219132670989049</v>
       </c>
       <c r="U6" t="n">
         <v>0.1015092383730531</v>
@@ -31434,7 +31434,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141857</v>
+        <v>1.293549420141856</v>
       </c>
       <c r="H7" t="n">
         <v>11.50083029907942</v>
@@ -31443,7 +31443,7 @@
         <v>38.90055892572057</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402927</v>
+        <v>91.45394400402925</v>
       </c>
       <c r="K7" t="n">
         <v>150.2869235401175</v>
@@ -31452,28 +31452,28 @@
         <v>192.3155201545448</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773276</v>
+        <v>202.7697513773275</v>
       </c>
       <c r="N7" t="n">
         <v>197.9483399022535</v>
       </c>
       <c r="O7" t="n">
-        <v>182.83733076696</v>
+        <v>182.8373307669599</v>
       </c>
       <c r="P7" t="n">
-        <v>156.448922596066</v>
+        <v>156.4489225960659</v>
       </c>
       <c r="Q7" t="n">
         <v>108.3171246266058</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565111</v>
+        <v>58.1626857456511</v>
       </c>
       <c r="S7" t="n">
         <v>22.54303853101762</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060659</v>
+        <v>5.526983886060658</v>
       </c>
       <c r="U7" t="n">
         <v>0.07055724109864681</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869146</v>
+        <v>4.833130601869147</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639241</v>
+        <v>49.49729877639242</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203918</v>
+        <v>410.2059184203919</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975129</v>
+        <v>614.792336797513</v>
       </c>
       <c r="L11" t="n">
-        <v>762.704257454466</v>
+        <v>762.7042574544661</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954563</v>
+        <v>848.6554437954566</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180171</v>
+        <v>862.3875761180174</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956808</v>
+        <v>814.3281336956809</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620361</v>
+        <v>695.0102219620362</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825971</v>
+        <v>521.9237322825973</v>
       </c>
       <c r="R11" t="n">
-        <v>303.599140169663</v>
+        <v>303.5991401696631</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900933</v>
@@ -31792,7 +31792,7 @@
         <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495316</v>
+        <v>0.3866504481495317</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469214</v>
+        <v>89.03390294469216</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193139</v>
       </c>
       <c r="K12" t="n">
-        <v>144.9058654583187</v>
+        <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747751</v>
+        <v>346.5700931427867</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821483</v>
+        <v>655.2214742821484</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340509</v>
+        <v>672.563237034051</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924477</v>
+        <v>615.2639659924478</v>
       </c>
       <c r="P12" t="n">
         <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047542</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627655</v>
+        <v>48.03293999627656</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.17012847696438</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535158</v>
       </c>
       <c r="H13" t="n">
         <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798457</v>
+        <v>65.19695102798458</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085356</v>
@@ -31926,13 +31926,13 @@
         <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770065</v>
+        <v>339.8400926770066</v>
       </c>
       <c r="N13" t="n">
-        <v>331.759454853103</v>
+        <v>331.7594548531031</v>
       </c>
       <c r="O13" t="n">
-        <v>306.433553380624</v>
+        <v>306.4335533806241</v>
       </c>
       <c r="P13" t="n">
         <v>262.2068429493066</v>
@@ -31941,13 +31941,13 @@
         <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811714</v>
+        <v>97.48008457811716</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493541</v>
+        <v>37.78190904493542</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377488</v>
+        <v>9.26317018837749</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473724</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32555,13 +32555,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>753.6188077738268</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>324.9782573297445</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>353.6230700590495</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,7 +34217,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900714</v>
+        <v>63.70847814900711</v>
       </c>
       <c r="K5" t="n">
         <v>146.7335225573786</v>
       </c>
       <c r="L5" t="n">
-        <v>219.31041672526</v>
+        <v>219.3104167252599</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518415</v>
+        <v>276.0144259518414</v>
       </c>
       <c r="N5" t="n">
         <v>285.141040431812</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757917</v>
+        <v>255.7806379757916</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010074</v>
+        <v>183.4533610010073</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243879</v>
+        <v>89.10649401243873</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959578</v>
+        <v>18.93640691959575</v>
       </c>
       <c r="K6" t="n">
         <v>111.3096029710207</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639921</v>
+        <v>196.459943263992</v>
       </c>
       <c r="M6" t="n">
         <v>248.8118794654001</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355784</v>
+        <v>383.6877278154313</v>
       </c>
       <c r="O6" t="n">
-        <v>224.508532490423</v>
+        <v>224.5085324904229</v>
       </c>
       <c r="P6" t="n">
-        <v>182.2201301347437</v>
+        <v>278.5610663907389</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.0505052237834</v>
+        <v>56.97321748793428</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,7 +35100,7 @@
         <v>219.9055454148609</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391682</v>
+        <v>242.3536283391681</v>
       </c>
       <c r="N7" t="n">
         <v>242.0805122814821</v>
@@ -35112,7 +35112,7 @@
         <v>153.7274818609594</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491146</v>
+        <v>22.15508137491145</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434849</v>
@@ -35258,16 +35258,16 @@
         <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>451.8731981657883</v>
       </c>
       <c r="N9" t="n">
-        <v>615.5326193530516</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000391</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937055</v>
+        <v>229.1600138937056</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525324</v>
+        <v>394.7024857525325</v>
       </c>
       <c r="L11" t="n">
         <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681836</v>
+        <v>618.3092105681839</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214263</v>
+        <v>632.9745125214265</v>
       </c>
       <c r="O11" t="n">
-        <v>584.229922273994</v>
+        <v>584.2299222739941</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067666</v>
+        <v>463.7772262067667</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081476</v>
+        <v>299.6180424081477</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553091</v>
+        <v>88.01360235553096</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526472</v>
       </c>
       <c r="K12" t="n">
-        <v>7.064426483959747</v>
+        <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949009</v>
+        <v>208.0157133629125</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601299</v>
+        <v>513.0874403601301</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507176</v>
+        <v>541.2215249507177</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480032</v>
+        <v>472.6677215480033</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240145</v>
+        <v>359.8291679240146</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187327</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655356</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186284</v>
+        <v>59.91672319186287</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070199</v>
+        <v>229.60990180702</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703704</v>
+        <v>349.9089300703705</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388471</v>
+        <v>379.4239696388472</v>
       </c>
       <c r="N13" t="n">
         <v>375.8916272323316</v>
@@ -35586,7 +35586,7 @@
         <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776323</v>
+        <v>95.37638356776326</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>622.2770956904935</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096329</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
         <v>394.3420143191314</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>211.4890361370311</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
